--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_0.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_0.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_0.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-252551.3153777583</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17519797.43398183</v>
+        <v>14246578.7136161</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28785902.26853178</v>
+        <v>25512683.54816605</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.325091479076319e-10</v>
+        <v>1833899.046345102</v>
       </c>
     </row>
     <row r="11">
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8139,13 +8139,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8379,19 +8379,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -8455,25 +8455,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8534,25 +8534,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -8616,19 +8616,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -8698,19 +8698,19 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8771,22 +8771,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8859,13 +8859,13 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8935,19 +8935,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9008,25 +9008,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9087,13 +9087,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9570,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -9643,10 +9643,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9807,10 +9807,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10050,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10114,25 +10114,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10193,13 +10193,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10275,13 +10275,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10430,13 +10430,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10512,16 +10512,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10664,25 +10664,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10746,19 +10746,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10986,19 +10986,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11068,19 +11068,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11220,19 +11220,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11381,10 +11381,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11457,13 +11457,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -22570,28 +22570,28 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>186.9547967801205</v>
       </c>
       <c r="P2" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>175.1632494739823</v>
@@ -22649,10 +22649,10 @@
         <v>80.86193375000001</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>112.5754335711478</v>
@@ -22661,10 +22661,10 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>108.8542060241433</v>
@@ -22731,13 +22731,13 @@
         <v>103.1837799195093</v>
       </c>
       <c r="K4" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>103.744504878002</v>
@@ -22746,7 +22746,7 @@
         <v>112.4959374921223</v>
       </c>
       <c r="P4" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>123.0978138239248</v>
@@ -22807,10 +22807,10 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>191.5602121631146</v>
@@ -22819,16 +22819,16 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N5" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>175.1632494739823</v>
@@ -22886,16 +22886,16 @@
         <v>80.86193375000001</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>106.7151410677083</v>
@@ -22904,7 +22904,7 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>113.7351914448925</v>
@@ -22971,19 +22971,19 @@
         <v>104.82327226356</v>
       </c>
       <c r="L7" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>123.0978138239248</v>
@@ -23047,25 +23047,25 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>175.1632494739823</v>
@@ -23126,25 +23126,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3645969707207</v>
@@ -23208,19 +23208,19 @@
         <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>112.8771994574291</v>
       </c>
       <c r="N10" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>112.4959374921223</v>
       </c>
       <c r="P10" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>123.0978138239248</v>
@@ -23290,19 +23290,19 @@
         <v>191.5602121631146</v>
       </c>
       <c r="M11" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>186.9547967801205</v>
       </c>
       <c r="P11" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>175.1632494739823</v>
@@ -23363,22 +23363,22 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K12" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>113.7351914448925</v>
@@ -23451,13 +23451,13 @@
         <v>112.8771994574291</v>
       </c>
       <c r="N13" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>123.0978138239248</v>
@@ -23527,19 +23527,19 @@
         <v>191.5602121631146</v>
       </c>
       <c r="M14" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>175.1632494739823</v>
@@ -23600,25 +23600,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M15" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>115.8594486111111</v>
       </c>
       <c r="P15" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3645969707207</v>
@@ -23679,13 +23679,13 @@
         <v>103.1837799195093</v>
       </c>
       <c r="K16" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>109.5937994785061</v>
       </c>
       <c r="M16" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>103.744504878002</v>
@@ -23694,7 +23694,7 @@
         <v>112.4959374921223</v>
       </c>
       <c r="P16" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>123.0978138239248</v>
@@ -23755,28 +23755,28 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N17" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>186.9547967801205</v>
       </c>
       <c r="P17" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>175.1632494739823</v>
@@ -23843,7 +23843,7 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M18" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>106.7151410677083</v>
@@ -23852,7 +23852,7 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P18" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>113.7351914448925</v>
@@ -23916,7 +23916,7 @@
         <v>103.1837799195093</v>
       </c>
       <c r="K19" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>109.5937994785061</v>
@@ -23931,7 +23931,7 @@
         <v>112.4959374921223</v>
       </c>
       <c r="P19" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>123.0978138239248</v>
@@ -23992,7 +23992,7 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>178.8230039740467</v>
@@ -24001,7 +24001,7 @@
         <v>191.5602121631146</v>
       </c>
       <c r="M20" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>186.3981141722301</v>
@@ -24013,7 +24013,7 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q20" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>175.1632494739823</v>
@@ -24077,7 +24077,7 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L21" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>115.4839025616399</v>
@@ -24086,10 +24086,10 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O21" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>113.7351914448925</v>
@@ -24162,7 +24162,7 @@
         <v>112.8771994574291</v>
       </c>
       <c r="N22" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>112.4959374921223</v>
@@ -24235,10 +24235,10 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L23" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>186.3981141722301</v>
@@ -24326,7 +24326,7 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P24" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>113.7351914448925</v>
@@ -24399,10 +24399,10 @@
         <v>112.8771994574291</v>
       </c>
       <c r="N25" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>111.9040032899324</v>
@@ -24466,19 +24466,19 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J26" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L26" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>186.9547967801205</v>
@@ -24487,7 +24487,7 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q26" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>175.1632494739823</v>
@@ -24557,7 +24557,7 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N27" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>115.8594486111111</v>
@@ -24566,7 +24566,7 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3645969707207</v>
@@ -24630,7 +24630,7 @@
         <v>104.82327226356</v>
       </c>
       <c r="L28" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>112.8771994574291</v>
@@ -24642,7 +24642,7 @@
         <v>112.4959374921223</v>
       </c>
       <c r="P28" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>123.0978138239248</v>
@@ -24706,25 +24706,25 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K29" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>186.9547967801205</v>
       </c>
       <c r="P29" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>175.1632494739823</v>
@@ -24785,13 +24785,13 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>106.7151410677083</v>
@@ -24800,7 +24800,7 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P30" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>113.7351914448925</v>
@@ -24867,13 +24867,13 @@
         <v>104.82327226356</v>
       </c>
       <c r="L31" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>112.4959374921223</v>
@@ -24940,7 +24940,7 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J32" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>178.8230039740467</v>
@@ -24952,7 +24952,7 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N32" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>186.9547967801205</v>
@@ -25022,13 +25022,13 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K33" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>106.7151410677083</v>
@@ -25037,7 +25037,7 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P33" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>113.7351914448925</v>
@@ -25104,16 +25104,16 @@
         <v>104.82327226356</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>111.9040032899324</v>
@@ -25177,10 +25177,10 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J35" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>191.5602121631146</v>
@@ -25189,7 +25189,7 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N35" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>186.9547967801205</v>
@@ -25198,7 +25198,7 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q35" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>175.1632494739823</v>
@@ -25256,25 +25256,25 @@
         <v>80.86193375000001</v>
       </c>
       <c r="J36" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>115.8594486111111</v>
       </c>
       <c r="P36" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>113.7351914448925</v>
@@ -25338,19 +25338,19 @@
         <v>103.1837799195093</v>
       </c>
       <c r="K37" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>103.744504878002</v>
       </c>
       <c r="O37" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>111.9040032899324</v>
@@ -25417,16 +25417,16 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K38" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N38" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>186.9547967801205</v>
@@ -25435,7 +25435,7 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q38" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>175.1632494739823</v>
@@ -25496,7 +25496,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>112.5754335711478</v>
@@ -25514,7 +25514,7 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3645969707207</v>
@@ -25578,19 +25578,19 @@
         <v>104.82327226356</v>
       </c>
       <c r="L40" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>112.4959374921223</v>
       </c>
       <c r="P40" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>123.0978138239248</v>
@@ -25651,7 +25651,7 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J41" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>178.8230039740467</v>
@@ -25660,19 +25660,19 @@
         <v>191.5602121631146</v>
       </c>
       <c r="M41" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O41" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>175.1632494739823</v>
@@ -25730,13 +25730,13 @@
         <v>80.86193375000001</v>
       </c>
       <c r="J42" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>115.4839025616399</v>
@@ -25751,7 +25751,7 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3645969707207</v>
@@ -25812,19 +25812,19 @@
         <v>103.1837799195093</v>
       </c>
       <c r="K43" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>112.8771994574291</v>
       </c>
       <c r="N43" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>111.9040032899324</v>
@@ -25900,7 +25900,7 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N44" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>186.9547967801205</v>
@@ -25909,7 +25909,7 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q44" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>175.1632494739823</v>
@@ -25973,10 +25973,10 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L45" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>106.7151410677083</v>
@@ -25988,7 +25988,7 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>118.3645969707207</v>
@@ -26049,13 +26049,13 @@
         <v>103.1837799195093</v>
       </c>
       <c r="K46" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>109.5937994785061</v>
       </c>
       <c r="M46" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>103.744504878002</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.14596332423389e-11</v>
+        <v>203162.3593908569</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.14596332423389e-11</v>
+        <v>207390.7541308713</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.14596332423389e-11</v>
+        <v>178964.6450094302</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.14596332423389e-11</v>
+        <v>169359.7578305145</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.14596332423389e-11</v>
+        <v>187204.4995930304</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.14596332423389e-11</v>
+        <v>177633.0232540076</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.14596332423389e-11</v>
+        <v>102551.2151145312</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.14596332423389e-11</v>
+        <v>70913.06844217434</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.14596332423389e-11</v>
+        <v>152175.9527790692</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.14596332423389e-11</v>
+        <v>204858.0658966612</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.14596332423389e-11</v>
+        <v>99593.97220383908</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.14596332423389e-11</v>
+        <v>166213.4501407643</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.14596332423389e-11</v>
+        <v>139840.343736083</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.14596332423389e-11</v>
+        <v>177270.2217712188</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.14596332423389e-11</v>
+        <v>86853.96216662295</v>
       </c>
     </row>
   </sheetData>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2861.441681561366</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2920.996537054527</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2520.628802949721</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2385.348701838233</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2636.683092859583</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2501.873566957853</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1444.383311472271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>998.7756118616112</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2143.323278578439</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2885.324871783963</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1402.732002870973</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2341.034509024849</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1969.582306142014</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2496.763686918574</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1223.295241783423</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-52818.20151235454</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-52818.20151235454</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-52818.20151235455</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-19190.60151235455</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-19190.60151235455</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-19190.60151235455</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-19190.60151235455</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-19190.60151235455</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-19190.60151235455</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-19190.60151235455</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
     </row>
   </sheetData>
